--- a/Data_Analy/data/covid_concentration.xlsx
+++ b/Data_Analy/data/covid_concentration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/Python_UF/Data_Analy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/Python_UF/Data_Analy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F04539-62C7-3548-B21F-881ABE69F8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922D885-390A-6843-A529-D33E313D790F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
